--- a/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
+++ b/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="5.25" customHeight="1" s="22"/>

--- a/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
+++ b/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="6" ht="5.25" customHeight="1" s="22"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="C22" s="19" t="n"/>
       <c r="D22" s="12" t="n">
-        <v>158.3</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" s="22">
@@ -994,7 +994,7 @@
       </c>
       <c r="C38" s="19" t="n"/>
       <c r="D38" s="12" t="n">
-        <v>244.506</v>
+        <v>367.127</v>
       </c>
     </row>
     <row r="40" ht="7.5" customHeight="1" s="22">
@@ -1013,10 +1013,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
+++ b/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="5.25" customHeight="1" s="22"/>

--- a/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
+++ b/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="5.25" customHeight="1" s="22"/>
@@ -1013,10 +1013,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
+++ b/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="5.25" customHeight="1" s="22"/>
@@ -1013,10 +1013,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
+++ b/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="5.25" customHeight="1" s="22"/>
@@ -1013,10 +1013,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
+++ b/server/LISTAS/ma/VARILLA Y ALAMBRE VISILLO.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="5.25" customHeight="1" s="22"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="C22" s="19" t="n"/>
       <c r="D22" s="12" t="n">
-        <v>158.3</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" s="22">
@@ -994,7 +994,7 @@
       </c>
       <c r="C38" s="19" t="n"/>
       <c r="D38" s="12" t="n">
-        <v>244.506</v>
+        <v>367.127</v>
       </c>
     </row>
     <row r="40" ht="7.5" customHeight="1" s="22">
@@ -1013,10 +1013,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
